--- a/修正問題總表.xlsx
+++ b/修正問題總表.xlsx
@@ -151,8 +151,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -177,9 +177,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,74 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,56 +320,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -342,12 +342,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,37 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,67 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,54 +523,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,45 +533,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,26 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,151 +574,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1405,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1414,6 +1414,9 @@
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="3:4">
@@ -1434,9 +1437,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:4">
       <c r="C32" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -1444,7 +1450,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="3:3">
@@ -1457,14 +1463,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:4">
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="3:3">
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
       <c r="C37" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="3:3">
